--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H2">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N2">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q2">
-        <v>46.66294547073679</v>
+        <v>64.97540389569777</v>
       </c>
       <c r="R2">
-        <v>46.66294547073679</v>
+        <v>584.7786350612801</v>
       </c>
       <c r="S2">
-        <v>0.7324416282178875</v>
+        <v>0.7090709110010406</v>
       </c>
       <c r="T2">
-        <v>0.7324416282178875</v>
+        <v>0.7090709110010406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H3">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N3">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q3">
-        <v>6.253375969102093</v>
+        <v>9.163361227785998</v>
       </c>
       <c r="R3">
-        <v>6.253375969102093</v>
+        <v>82.47025105007398</v>
       </c>
       <c r="S3">
-        <v>0.09815567428207242</v>
+        <v>0.0999989612076586</v>
       </c>
       <c r="T3">
-        <v>0.09815567428207242</v>
+        <v>0.0999989612076586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H4">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I4">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J4">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N4">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q4">
-        <v>2.574208378515788</v>
+        <v>2.761910016995556</v>
       </c>
       <c r="R4">
-        <v>2.574208378515788</v>
+        <v>24.85719015296</v>
       </c>
       <c r="S4">
-        <v>0.04040588002132522</v>
+        <v>0.03014048292793467</v>
       </c>
       <c r="T4">
-        <v>0.04040588002132522</v>
+        <v>0.03014048292793466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H5">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I5">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J5">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N5">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O5">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P5">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q5">
-        <v>0.344973782758033</v>
+        <v>0.389507069552</v>
       </c>
       <c r="R5">
-        <v>0.344973782758033</v>
+        <v>3.505563625968</v>
       </c>
       <c r="S5">
-        <v>0.00541485661881832</v>
+        <v>0.004250656649890707</v>
       </c>
       <c r="T5">
-        <v>0.00541485661881832</v>
+        <v>0.004250656649890707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H6">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I6">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J6">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N6">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P6">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q6">
-        <v>6.942832926877173</v>
+        <v>12.57145313893333</v>
       </c>
       <c r="R6">
-        <v>6.942832926877173</v>
+        <v>113.1430782504</v>
       </c>
       <c r="S6">
-        <v>0.1089776867299497</v>
+        <v>0.1371911707411576</v>
       </c>
       <c r="T6">
-        <v>0.1089776867299497</v>
+        <v>0.1371911707411576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H7">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I7">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J7">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N7">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O7">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P7">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q7">
-        <v>0.9304201469590372</v>
+        <v>1.77292882173</v>
       </c>
       <c r="R7">
-        <v>0.9304201469590372</v>
+        <v>15.95635939557</v>
       </c>
       <c r="S7">
-        <v>0.01460427412994688</v>
+        <v>0.01934781747231788</v>
       </c>
       <c r="T7">
-        <v>0.01460427412994688</v>
+        <v>0.01934781747231787</v>
       </c>
     </row>
   </sheetData>
